--- a/stock_correlations.xlsx
+++ b/stock_correlations.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="9">
   <si>
     <t>AAPL</t>
   </si>
@@ -442,28 +442,28 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.722193007403496</v>
+        <v>0.7229906456833898</v>
       </c>
       <c r="D2">
-        <v>0.4902134656747418</v>
+        <v>0.4934998816828769</v>
       </c>
       <c r="E2">
-        <v>0.5175408115299978</v>
+        <v>0.5175509754126971</v>
       </c>
       <c r="F2">
-        <v>0.1390834075342587</v>
+        <v>0.1405603493885525</v>
       </c>
       <c r="G2">
-        <v>0.4825026555559575</v>
+        <v>0.5008483592271767</v>
       </c>
       <c r="H2">
-        <v>0.2699911953415332</v>
+        <v>0.2958048767008628</v>
       </c>
       <c r="I2">
-        <v>0.2218654338684819</v>
+        <v>0.2267996330105353</v>
       </c>
       <c r="J2">
-        <v>-0.05322495979850994</v>
+        <v>-0.04989936344540905</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -471,31 +471,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.722193007403496</v>
+        <v>0.7229906456833898</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.7113884102805508</v>
+        <v>0.7109300451906878</v>
       </c>
       <c r="E3">
-        <v>0.6658198774852454</v>
+        <v>0.6659368208538143</v>
       </c>
       <c r="F3">
-        <v>0.2151948348880354</v>
+        <v>0.2141386615671553</v>
       </c>
       <c r="G3">
-        <v>0.5686120970836921</v>
+        <v>0.5769643874478345</v>
       </c>
       <c r="H3">
-        <v>0.4007511167241694</v>
+        <v>0.415343141078085</v>
       </c>
       <c r="I3">
-        <v>0.3060834060161812</v>
+        <v>0.3059480813053322</v>
       </c>
       <c r="J3">
-        <v>-0.05525228607413053</v>
+        <v>-0.05405366951786433</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -503,31 +503,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4902134656747418</v>
+        <v>0.4934998816828769</v>
       </c>
       <c r="C4">
-        <v>0.7113884102805508</v>
+        <v>0.7109300451906878</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.6522119488354089</v>
+        <v>0.6525984297469303</v>
       </c>
       <c r="F4">
-        <v>0.2436133502116018</v>
+        <v>0.2401900148677087</v>
       </c>
       <c r="G4">
-        <v>0.4567657926006792</v>
+        <v>0.4579891675427091</v>
       </c>
       <c r="H4">
-        <v>0.399028873777718</v>
+        <v>0.4045932061020174</v>
       </c>
       <c r="I4">
-        <v>0.3206112845938242</v>
+        <v>0.3187216868824062</v>
       </c>
       <c r="J4">
-        <v>-0.02558021690602909</v>
+        <v>-0.02941304964843069</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -535,31 +535,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5175408115299978</v>
+        <v>0.5175509754126971</v>
       </c>
       <c r="C5">
-        <v>0.6658198774852454</v>
+        <v>0.6659368208538143</v>
       </c>
       <c r="D5">
-        <v>0.6522119488354089</v>
+        <v>0.6525984297469303</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.1716866630413265</v>
+        <v>0.1721068244184274</v>
       </c>
       <c r="G5">
-        <v>0.4191533088738774</v>
+        <v>0.4279081814918291</v>
       </c>
       <c r="H5">
-        <v>0.3390552191534738</v>
+        <v>0.3555761958506696</v>
       </c>
       <c r="I5">
-        <v>0.2167632646362297</v>
+        <v>0.2179351094855644</v>
       </c>
       <c r="J5">
-        <v>-0.002746358274107848</v>
+        <v>-0.001351631278914107</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -567,31 +567,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1390834075342587</v>
+        <v>0.1405603493885525</v>
       </c>
       <c r="C6">
-        <v>0.2151948348880354</v>
+        <v>0.2141386615671553</v>
       </c>
       <c r="D6">
-        <v>0.2436133502116018</v>
+        <v>0.2401900148677087</v>
       </c>
       <c r="E6">
-        <v>0.1716866630413265</v>
+        <v>0.1721068244184274</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.1753554342117351</v>
+        <v>0.1666142641940838</v>
       </c>
       <c r="H6">
-        <v>0.1125425051816901</v>
+        <v>0.09972017634341686</v>
       </c>
       <c r="I6">
-        <v>0.8211707496417646</v>
+        <v>0.8194506369075161</v>
       </c>
       <c r="J6">
-        <v>-0.5141841958336549</v>
+        <v>-0.5193276161652094</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -599,31 +599,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4825026555559575</v>
+        <v>0.5008483592271767</v>
       </c>
       <c r="C7">
-        <v>0.5686120970836921</v>
+        <v>0.5769643874478345</v>
       </c>
       <c r="D7">
-        <v>0.4567657926006792</v>
+        <v>0.4579891675427091</v>
       </c>
       <c r="E7">
-        <v>0.4191533088738774</v>
+        <v>0.4279081814918291</v>
       </c>
       <c r="F7">
-        <v>0.1753554342117351</v>
+        <v>0.1666142641940838</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.4213511963251468</v>
+        <v>0.3915072332319557</v>
       </c>
       <c r="I7">
-        <v>0.2644955514641687</v>
+        <v>0.2544735668737648</v>
       </c>
       <c r="J7">
-        <v>0.03185672999220415</v>
+        <v>0.01773625088635521</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -631,31 +631,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2699911953415332</v>
+        <v>0.2958048767008628</v>
       </c>
       <c r="C8">
-        <v>0.4007511167241694</v>
+        <v>0.415343141078085</v>
       </c>
       <c r="D8">
-        <v>0.399028873777718</v>
+        <v>0.4045932061020174</v>
       </c>
       <c r="E8">
-        <v>0.3390552191534738</v>
+        <v>0.3555761958506696</v>
       </c>
       <c r="F8">
-        <v>0.1125425051816901</v>
+        <v>0.09972017634341686</v>
       </c>
       <c r="G8">
-        <v>0.4213511963251468</v>
+        <v>0.3915072332319557</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0.1987900046360105</v>
+        <v>0.1835621468860797</v>
       </c>
       <c r="J8">
-        <v>0.04545545658957092</v>
+        <v>0.0249894345949448</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -663,31 +663,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2218654338684819</v>
+        <v>0.2267996330105353</v>
       </c>
       <c r="C9">
-        <v>0.3060834060161812</v>
+        <v>0.3059480813053322</v>
       </c>
       <c r="D9">
-        <v>0.3206112845938242</v>
+        <v>0.3187216868824062</v>
       </c>
       <c r="E9">
-        <v>0.2167632646362297</v>
+        <v>0.2179351094855644</v>
       </c>
       <c r="F9">
-        <v>0.8211707496417646</v>
+        <v>0.8194506369075161</v>
       </c>
       <c r="G9">
-        <v>0.2644955514641687</v>
+        <v>0.2544735668737648</v>
       </c>
       <c r="H9">
-        <v>0.1987900046360105</v>
+        <v>0.1835621468860797</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>-0.3329118620184394</v>
+        <v>-0.341478141887907</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -695,28 +695,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.05322495979850994</v>
+        <v>-0.04989936344540905</v>
       </c>
       <c r="C10">
-        <v>-0.05525228607413053</v>
+        <v>-0.05405366951786433</v>
       </c>
       <c r="D10">
-        <v>-0.02558021690602909</v>
+        <v>-0.02941304964843069</v>
       </c>
       <c r="E10">
-        <v>-0.002746358274107848</v>
+        <v>-0.001351631278914107</v>
       </c>
       <c r="F10">
-        <v>-0.5141841958336549</v>
+        <v>-0.5193276161652094</v>
       </c>
       <c r="G10">
-        <v>0.03185672999220415</v>
+        <v>0.01773625088635521</v>
       </c>
       <c r="H10">
-        <v>0.04545545658957092</v>
+        <v>0.0249894345949448</v>
       </c>
       <c r="I10">
-        <v>-0.3329118620184394</v>
+        <v>-0.341478141887907</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -748,7 +748,7 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>0.8211707496417646</v>
+        <v>0.8194506369075161</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -759,7 +759,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.722193007403496</v>
+        <v>0.7229906456833898</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -770,7 +770,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.7113884102805508</v>
+        <v>0.7109300451906878</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -779,7 +779,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.6658198774852454</v>
+        <v>0.6659368208538143</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -790,7 +790,7 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>0.6522119488354089</v>
+        <v>0.6525984297469303</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -801,49 +801,47 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.5686120970836921</v>
+        <v>0.5769643874478345</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>0.5175408115299978</v>
+        <v>0.5193276161652094</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>0.5141841958336549</v>
+        <v>0.5175509754126971</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>0.4902134656747418</v>
+        <v>0.5008483592271767</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>0.4825026555559575</v>
+        <v>0.4934998816828769</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -854,51 +852,51 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>0.4567657926006792</v>
+        <v>0.4579891675427091</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="C13">
-        <v>0.4213511963251468</v>
+        <v>0.4279081814918291</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14">
-        <v>0.4191533088738774</v>
+        <v>0.415343141078085</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C15">
-        <v>0.4007511167241694</v>
+        <v>0.4045932061020174</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C16">
-        <v>0.399028873777718</v>
+        <v>0.3915072332319557</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -909,7 +907,7 @@
         <v>6</v>
       </c>
       <c r="C17">
-        <v>0.3390552191534738</v>
+        <v>0.3555761958506696</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -920,7 +918,7 @@
         <v>8</v>
       </c>
       <c r="C18">
-        <v>0.3329118620184394</v>
+        <v>0.341478141887907</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -931,7 +929,7 @@
         <v>7</v>
       </c>
       <c r="C19">
-        <v>0.3206112845938242</v>
+        <v>0.3187216868824062</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -942,7 +940,7 @@
         <v>7</v>
       </c>
       <c r="C20">
-        <v>0.3060834060161812</v>
+        <v>0.3059480813053322</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -953,7 +951,7 @@
         <v>6</v>
       </c>
       <c r="C21">
-        <v>0.2699911953415332</v>
+        <v>0.2958048767008628</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -964,7 +962,7 @@
         <v>7</v>
       </c>
       <c r="C22">
-        <v>0.2644955514641687</v>
+        <v>0.2544735668737648</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -975,7 +973,7 @@
         <v>4</v>
       </c>
       <c r="C23">
-        <v>0.2436133502116018</v>
+        <v>0.2401900148677087</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -986,7 +984,7 @@
         <v>7</v>
       </c>
       <c r="C24">
-        <v>0.2218654338684819</v>
+        <v>0.2267996330105353</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -997,7 +995,7 @@
         <v>7</v>
       </c>
       <c r="C25">
-        <v>0.2167632646362297</v>
+        <v>0.2179351094855644</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1008,7 +1006,7 @@
         <v>4</v>
       </c>
       <c r="C26">
-        <v>0.2151948348880354</v>
+        <v>0.2141386615671553</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1019,29 +1017,29 @@
         <v>7</v>
       </c>
       <c r="C27">
-        <v>0.1987900046360105</v>
+        <v>0.1835621468860797</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="C28">
-        <v>0.1753554342117351</v>
+        <v>0.1721068244184274</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C29">
-        <v>0.1716866630413265</v>
+        <v>0.1666142641940838</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1052,7 +1050,7 @@
         <v>4</v>
       </c>
       <c r="C30">
-        <v>0.1390834075342587</v>
+        <v>0.1405603493885525</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1063,7 +1061,7 @@
         <v>6</v>
       </c>
       <c r="C31">
-        <v>0.1125425051816901</v>
+        <v>0.09972017634341686</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1074,7 +1072,7 @@
         <v>8</v>
       </c>
       <c r="C32">
-        <v>0.05525228607413053</v>
+        <v>0.05405366951786433</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1085,40 +1083,40 @@
         <v>8</v>
       </c>
       <c r="C33">
-        <v>0.05322495979850994</v>
+        <v>0.04989936344540905</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C34">
-        <v>0.04545545658957092</v>
+        <v>0.02941304964843069</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C35">
-        <v>0.03185672999220415</v>
+        <v>0.0249894345949448</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C36">
-        <v>0.02558021690602909</v>
+        <v>0.01773625088635521</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1129,13 +1127,13 @@
         <v>8</v>
       </c>
       <c r="C37">
-        <v>0.002746358274107848</v>
+        <v>0.001351631278914107</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A9:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
